--- a/Data/selenium.xlsx
+++ b/Data/selenium.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckProductVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>admin</t>
   </si>
@@ -24,15 +24,47 @@
     <t>manager</t>
   </si>
   <si>
-    <t>123</t>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xzy</t>
+  </si>
+  <si>
+    <t>eVersion</t>
+  </si>
+  <si>
+    <t>actiTIME 2017.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -62,7 +94,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,20 +389,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -380,35 +489,11 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/selenium.xlsx
+++ b/Data/selenium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>admin</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>actiTIME 2017.4</t>
+  </si>
+  <si>
+    <t>damanger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,6 +458,30 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -462,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
